--- a/biology/Médecine/Robert_Grèverie/Robert_Grèverie.xlsx
+++ b/biology/Médecine/Robert_Grèverie/Robert_Grèverie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Robert_Gr%C3%A8verie</t>
+          <t>Robert_Grèverie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Robert Grèverie, né le 18 juillet 1910 à Tourville-les-Ifs et mort le 15 décembre 1998 à Fécamp, est un médecin et homme politique français.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Robert_Gr%C3%A8verie</t>
+          <t>Robert_Grèverie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'est présenté à la députation au titre de la 1ère législature dont les élections se sont tenues les 23 et 30 novembre 1958, dans la huitième circonscription de la Seine-Maritime, composée alors des cantons de : Yvetot, Bacqueville, Cany, Doudeville, Fauville, Fontaine-le-Dun, Ourville, Saint-Valery-en-Caux, Totes, Valmont, Yerville, et sous l'étiquette des Républicains indépendants. Son suppléant est Joseph Duclos, maire de Bourdainville et conseiller général.
 En mars 1982, alors qu'il est conseiller général, il apparaît à la cérémonie de signature du protocole de décentralisation entre l’État, représenté par le préfet Pierre Bolotte et le conseil général de la Seine-Maritime, représenté par son président, Jean Lecanuet. Il y préside la commission des routes, des transports et des communications.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Robert_Gr%C3%A8verie</t>
+          <t>Robert_Grèverie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Croix de guerre 1939-1945
  Insigne des blessés militaires</t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Robert_Gr%C3%A8verie</t>
+          <t>Robert_Grèverie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom du député est donné à une place publique de la commune de Valmont.
 </t>
